--- a/vproattr.xlsx
+++ b/vproattr.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="grupos de atributos" sheetId="3" r:id="rId1"/>
     <sheet name="ordem de vproattr" sheetId="4" r:id="rId2"/>
+    <sheet name="robsoners" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="96">
   <si>
     <t>Acceleration</t>
   </si>
@@ -262,6 +263,57 @@
   </si>
   <si>
     <t>Reflexos</t>
+  </si>
+  <si>
+    <t>Jogador</t>
+  </si>
+  <si>
+    <t>Buraco Heleno</t>
+  </si>
+  <si>
+    <t>Dj Marquin</t>
+  </si>
+  <si>
+    <t>Leo Stronda</t>
+  </si>
+  <si>
+    <t>Michel Telo</t>
+  </si>
+  <si>
+    <t>Naldo Benny</t>
+  </si>
+  <si>
+    <t>Notorious</t>
+  </si>
+  <si>
+    <t>Pitbull</t>
+  </si>
+  <si>
+    <t>Snoop Doggy Dog</t>
+  </si>
+  <si>
+    <t>Supla</t>
+  </si>
+  <si>
+    <t>Ty Dolla $ign</t>
+  </si>
+  <si>
+    <t>Curupira</t>
+  </si>
+  <si>
+    <t>Perna Ruim</t>
+  </si>
+  <si>
+    <t>Elasticidade</t>
+  </si>
+  <si>
+    <t>Posicionamento</t>
+  </si>
+  <si>
+    <t>Fintas</t>
+  </si>
+  <si>
+    <t>Miley</t>
   </si>
 </sst>
 </file>
@@ -290,7 +342,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,8 +361,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -318,11 +376,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -343,6 +416,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -627,7 +718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -1062,7 +1153,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,10 +1173,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="12"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1351,4 +1442,1656 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AW13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B11" sqref="B11:AI11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="2"/>
+    <col min="21" max="21" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13"/>
+      <c r="AN1" s="13"/>
+      <c r="AO1" s="13"/>
+      <c r="AP1" s="13"/>
+      <c r="AQ1" s="13"/>
+      <c r="AR1" s="13"/>
+      <c r="AS1" s="13"/>
+      <c r="AT1" s="13"/>
+      <c r="AU1" s="13"/>
+      <c r="AV1" s="13"/>
+      <c r="AW1" s="13"/>
+    </row>
+    <row r="2" spans="1:49" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="10">
+        <v>78</v>
+      </c>
+      <c r="C2" s="10">
+        <v>73</v>
+      </c>
+      <c r="D2" s="10">
+        <v>77</v>
+      </c>
+      <c r="E2" s="10">
+        <v>80</v>
+      </c>
+      <c r="F2" s="10">
+        <v>85</v>
+      </c>
+      <c r="G2" s="10">
+        <v>90</v>
+      </c>
+      <c r="H2" s="10">
+        <v>86</v>
+      </c>
+      <c r="I2" s="10">
+        <v>92</v>
+      </c>
+      <c r="J2" s="10">
+        <v>87</v>
+      </c>
+      <c r="K2" s="10">
+        <v>76</v>
+      </c>
+      <c r="L2" s="10">
+        <v>91</v>
+      </c>
+      <c r="M2" s="10">
+        <v>62</v>
+      </c>
+      <c r="N2" s="10">
+        <v>82</v>
+      </c>
+      <c r="O2" s="10">
+        <v>64</v>
+      </c>
+      <c r="P2" s="10">
+        <v>77</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>77</v>
+      </c>
+      <c r="R2" s="10">
+        <v>64</v>
+      </c>
+      <c r="S2" s="10">
+        <v>60</v>
+      </c>
+      <c r="T2" s="10">
+        <v>88</v>
+      </c>
+      <c r="U2" s="10">
+        <v>85</v>
+      </c>
+      <c r="V2" s="10">
+        <v>82</v>
+      </c>
+      <c r="W2" s="10">
+        <v>91</v>
+      </c>
+      <c r="X2" s="10">
+        <v>68</v>
+      </c>
+      <c r="Y2" s="10">
+        <v>81</v>
+      </c>
+      <c r="Z2" s="10">
+        <v>92</v>
+      </c>
+      <c r="AA2" s="10">
+        <v>88</v>
+      </c>
+      <c r="AB2" s="10">
+        <v>70</v>
+      </c>
+      <c r="AC2" s="10">
+        <v>69</v>
+      </c>
+      <c r="AD2" s="10">
+        <v>63</v>
+      </c>
+      <c r="AE2" s="10">
+        <v>10</v>
+      </c>
+      <c r="AF2" s="10">
+        <v>10</v>
+      </c>
+      <c r="AG2" s="10">
+        <v>10</v>
+      </c>
+      <c r="AH2" s="10">
+        <v>10</v>
+      </c>
+      <c r="AI2" s="10">
+        <v>10</v>
+      </c>
+      <c r="AJ2" s="10">
+        <v>4</v>
+      </c>
+      <c r="AK2" s="10">
+        <v>2</v>
+      </c>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="13"/>
+      <c r="AN2" s="13"/>
+      <c r="AO2" s="13"/>
+      <c r="AP2" s="13"/>
+      <c r="AQ2" s="13"/>
+      <c r="AR2" s="13"/>
+      <c r="AS2" s="13"/>
+      <c r="AT2" s="13"/>
+      <c r="AU2" s="13"/>
+      <c r="AV2" s="13"/>
+      <c r="AW2" s="13"/>
+    </row>
+    <row r="3" spans="1:49" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="10">
+        <v>78</v>
+      </c>
+      <c r="C3" s="10">
+        <v>73</v>
+      </c>
+      <c r="D3" s="10">
+        <v>77</v>
+      </c>
+      <c r="E3" s="10">
+        <v>80</v>
+      </c>
+      <c r="F3" s="10">
+        <v>85</v>
+      </c>
+      <c r="G3" s="10">
+        <v>90</v>
+      </c>
+      <c r="H3" s="10">
+        <v>86</v>
+      </c>
+      <c r="I3" s="10">
+        <v>92</v>
+      </c>
+      <c r="J3" s="10">
+        <v>87</v>
+      </c>
+      <c r="K3" s="10">
+        <v>76</v>
+      </c>
+      <c r="L3" s="10">
+        <v>91</v>
+      </c>
+      <c r="M3" s="10">
+        <v>62</v>
+      </c>
+      <c r="N3" s="10">
+        <v>82</v>
+      </c>
+      <c r="O3" s="10">
+        <v>64</v>
+      </c>
+      <c r="P3" s="10">
+        <v>77</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>77</v>
+      </c>
+      <c r="R3" s="10">
+        <v>64</v>
+      </c>
+      <c r="S3" s="10">
+        <v>60</v>
+      </c>
+      <c r="T3" s="10">
+        <v>88</v>
+      </c>
+      <c r="U3" s="10">
+        <v>85</v>
+      </c>
+      <c r="V3" s="10">
+        <v>82</v>
+      </c>
+      <c r="W3" s="10">
+        <v>91</v>
+      </c>
+      <c r="X3" s="10">
+        <v>68</v>
+      </c>
+      <c r="Y3" s="10">
+        <v>81</v>
+      </c>
+      <c r="Z3" s="10">
+        <v>92</v>
+      </c>
+      <c r="AA3" s="10">
+        <v>88</v>
+      </c>
+      <c r="AB3" s="10">
+        <v>70</v>
+      </c>
+      <c r="AC3" s="10">
+        <v>69</v>
+      </c>
+      <c r="AD3" s="10">
+        <v>63</v>
+      </c>
+      <c r="AE3" s="10">
+        <v>93</v>
+      </c>
+      <c r="AF3" s="10">
+        <v>83</v>
+      </c>
+      <c r="AG3" s="10">
+        <v>82</v>
+      </c>
+      <c r="AH3" s="10">
+        <v>89</v>
+      </c>
+      <c r="AI3" s="10">
+        <v>87</v>
+      </c>
+      <c r="AJ3" s="10">
+        <v>4</v>
+      </c>
+      <c r="AK3" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="13"/>
+      <c r="AP3" s="13"/>
+      <c r="AQ3" s="13"/>
+      <c r="AR3" s="13"/>
+      <c r="AS3" s="13"/>
+      <c r="AT3" s="13"/>
+      <c r="AU3" s="13"/>
+      <c r="AV3" s="13"/>
+      <c r="AW3" s="13"/>
+    </row>
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="10">
+        <v>79</v>
+      </c>
+      <c r="C4" s="10">
+        <v>76</v>
+      </c>
+      <c r="D4" s="10">
+        <v>80</v>
+      </c>
+      <c r="E4" s="10">
+        <v>82</v>
+      </c>
+      <c r="F4" s="10">
+        <v>74</v>
+      </c>
+      <c r="G4" s="10">
+        <v>93</v>
+      </c>
+      <c r="H4" s="10">
+        <v>77</v>
+      </c>
+      <c r="I4" s="10">
+        <v>92</v>
+      </c>
+      <c r="J4" s="10">
+        <v>80</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10">
+        <v>80</v>
+      </c>
+      <c r="M4" s="10">
+        <v>82</v>
+      </c>
+      <c r="N4" s="10">
+        <v>89</v>
+      </c>
+      <c r="O4" s="10">
+        <v>90</v>
+      </c>
+      <c r="P4" s="10">
+        <v>85</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>87</v>
+      </c>
+      <c r="R4" s="10">
+        <v>78</v>
+      </c>
+      <c r="S4" s="10">
+        <v>83</v>
+      </c>
+      <c r="T4" s="10">
+        <v>75</v>
+      </c>
+      <c r="U4" s="10">
+        <v>90</v>
+      </c>
+      <c r="V4" s="10">
+        <v>89</v>
+      </c>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10">
+        <v>82</v>
+      </c>
+      <c r="Y4" s="10">
+        <v>90</v>
+      </c>
+      <c r="Z4" s="10">
+        <v>80</v>
+      </c>
+      <c r="AA4" s="10">
+        <v>73</v>
+      </c>
+      <c r="AB4" s="10">
+        <v>80</v>
+      </c>
+      <c r="AC4" s="10">
+        <v>83</v>
+      </c>
+      <c r="AD4" s="10">
+        <v>75</v>
+      </c>
+      <c r="AE4" s="10">
+        <v>10</v>
+      </c>
+      <c r="AF4" s="10">
+        <v>10</v>
+      </c>
+      <c r="AG4" s="10">
+        <v>10</v>
+      </c>
+      <c r="AH4" s="10">
+        <v>10</v>
+      </c>
+      <c r="AI4" s="10">
+        <v>10</v>
+      </c>
+      <c r="AJ4" s="10">
+        <v>4</v>
+      </c>
+      <c r="AK4" s="10">
+        <v>4</v>
+      </c>
+      <c r="AL4" s="13"/>
+      <c r="AM4" s="13"/>
+      <c r="AN4" s="13"/>
+      <c r="AO4" s="13"/>
+      <c r="AP4" s="13"/>
+      <c r="AQ4" s="13"/>
+      <c r="AR4" s="13"/>
+      <c r="AS4" s="13"/>
+      <c r="AT4" s="13"/>
+      <c r="AU4" s="13"/>
+      <c r="AV4" s="13"/>
+      <c r="AW4" s="13"/>
+    </row>
+    <row r="5" spans="1:49" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="10">
+        <v>79</v>
+      </c>
+      <c r="C5" s="10">
+        <v>76</v>
+      </c>
+      <c r="D5" s="10">
+        <v>80</v>
+      </c>
+      <c r="E5" s="10">
+        <v>82</v>
+      </c>
+      <c r="F5" s="10">
+        <v>74</v>
+      </c>
+      <c r="G5" s="10">
+        <v>93</v>
+      </c>
+      <c r="H5" s="10">
+        <v>77</v>
+      </c>
+      <c r="I5" s="10">
+        <v>92</v>
+      </c>
+      <c r="J5" s="10">
+        <v>80</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10">
+        <v>80</v>
+      </c>
+      <c r="M5" s="10">
+        <v>82</v>
+      </c>
+      <c r="N5" s="10">
+        <v>89</v>
+      </c>
+      <c r="O5" s="10">
+        <v>90</v>
+      </c>
+      <c r="P5" s="10">
+        <v>85</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>87</v>
+      </c>
+      <c r="R5" s="10">
+        <v>78</v>
+      </c>
+      <c r="S5" s="10">
+        <v>83</v>
+      </c>
+      <c r="T5" s="10">
+        <v>75</v>
+      </c>
+      <c r="U5" s="10">
+        <v>90</v>
+      </c>
+      <c r="V5" s="10">
+        <v>89</v>
+      </c>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10">
+        <v>82</v>
+      </c>
+      <c r="Y5" s="10">
+        <v>90</v>
+      </c>
+      <c r="Z5" s="10">
+        <v>80</v>
+      </c>
+      <c r="AA5" s="10">
+        <v>73</v>
+      </c>
+      <c r="AB5" s="10">
+        <v>80</v>
+      </c>
+      <c r="AC5" s="10">
+        <v>83</v>
+      </c>
+      <c r="AD5" s="10">
+        <v>75</v>
+      </c>
+      <c r="AE5" s="10">
+        <v>10</v>
+      </c>
+      <c r="AF5" s="10">
+        <v>10</v>
+      </c>
+      <c r="AG5" s="10">
+        <v>10</v>
+      </c>
+      <c r="AH5" s="10">
+        <v>10</v>
+      </c>
+      <c r="AI5" s="10">
+        <v>10</v>
+      </c>
+      <c r="AJ5" s="10">
+        <v>4</v>
+      </c>
+      <c r="AK5" s="10">
+        <v>4</v>
+      </c>
+      <c r="AL5" s="13"/>
+      <c r="AM5" s="13"/>
+      <c r="AN5" s="13"/>
+      <c r="AO5" s="13"/>
+      <c r="AP5" s="13"/>
+      <c r="AQ5" s="13"/>
+      <c r="AR5" s="13"/>
+      <c r="AS5" s="13"/>
+      <c r="AT5" s="13"/>
+      <c r="AU5" s="13"/>
+      <c r="AV5" s="13"/>
+      <c r="AW5" s="13"/>
+    </row>
+    <row r="6" spans="1:49" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="10">
+        <v>85</v>
+      </c>
+      <c r="C6" s="10">
+        <v>87</v>
+      </c>
+      <c r="D6" s="10">
+        <v>79</v>
+      </c>
+      <c r="E6" s="10">
+        <v>81</v>
+      </c>
+      <c r="F6" s="10">
+        <v>83</v>
+      </c>
+      <c r="G6" s="10">
+        <v>90</v>
+      </c>
+      <c r="H6" s="10">
+        <v>78</v>
+      </c>
+      <c r="I6" s="10">
+        <v>92</v>
+      </c>
+      <c r="J6" s="10">
+        <v>81</v>
+      </c>
+      <c r="K6" s="10">
+        <v>76</v>
+      </c>
+      <c r="L6" s="10">
+        <v>90</v>
+      </c>
+      <c r="M6" s="10">
+        <v>79</v>
+      </c>
+      <c r="N6" s="10">
+        <v>82</v>
+      </c>
+      <c r="O6" s="10">
+        <v>75</v>
+      </c>
+      <c r="P6" s="10">
+        <v>80</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>83</v>
+      </c>
+      <c r="R6" s="10">
+        <v>65</v>
+      </c>
+      <c r="S6" s="10">
+        <v>64</v>
+      </c>
+      <c r="T6" s="10">
+        <v>85</v>
+      </c>
+      <c r="U6" s="10">
+        <v>82</v>
+      </c>
+      <c r="V6" s="10">
+        <v>85</v>
+      </c>
+      <c r="W6" s="10">
+        <v>86</v>
+      </c>
+      <c r="X6" s="10">
+        <v>90</v>
+      </c>
+      <c r="Y6" s="10">
+        <v>88</v>
+      </c>
+      <c r="Z6" s="10">
+        <v>86</v>
+      </c>
+      <c r="AA6" s="10">
+        <v>89</v>
+      </c>
+      <c r="AB6" s="10">
+        <v>72</v>
+      </c>
+      <c r="AC6" s="10">
+        <v>85</v>
+      </c>
+      <c r="AD6" s="10">
+        <v>66</v>
+      </c>
+      <c r="AE6" s="10">
+        <v>10</v>
+      </c>
+      <c r="AF6" s="10">
+        <v>10</v>
+      </c>
+      <c r="AG6" s="10">
+        <v>10</v>
+      </c>
+      <c r="AH6" s="10">
+        <v>10</v>
+      </c>
+      <c r="AI6" s="10">
+        <v>10</v>
+      </c>
+      <c r="AJ6" s="10">
+        <v>4</v>
+      </c>
+      <c r="AK6" s="10">
+        <v>3</v>
+      </c>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="13"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="13"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="13"/>
+      <c r="AR6" s="13"/>
+      <c r="AS6" s="13"/>
+      <c r="AT6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AV6" s="13"/>
+      <c r="AW6" s="13"/>
+    </row>
+    <row r="7" spans="1:49" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="10">
+        <v>78</v>
+      </c>
+      <c r="C7" s="10">
+        <v>73</v>
+      </c>
+      <c r="D7" s="10">
+        <v>77</v>
+      </c>
+      <c r="E7" s="10">
+        <v>80</v>
+      </c>
+      <c r="F7" s="10">
+        <v>85</v>
+      </c>
+      <c r="G7" s="10">
+        <v>90</v>
+      </c>
+      <c r="H7" s="10">
+        <v>86</v>
+      </c>
+      <c r="I7" s="10">
+        <v>92</v>
+      </c>
+      <c r="J7" s="10">
+        <v>87</v>
+      </c>
+      <c r="K7" s="10">
+        <v>76</v>
+      </c>
+      <c r="L7" s="10">
+        <v>91</v>
+      </c>
+      <c r="M7" s="10">
+        <v>62</v>
+      </c>
+      <c r="N7" s="10">
+        <v>77</v>
+      </c>
+      <c r="O7" s="10">
+        <v>64</v>
+      </c>
+      <c r="P7" s="10">
+        <v>77</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>77</v>
+      </c>
+      <c r="R7" s="10">
+        <v>64</v>
+      </c>
+      <c r="S7" s="10">
+        <v>60</v>
+      </c>
+      <c r="T7" s="10">
+        <v>88</v>
+      </c>
+      <c r="U7" s="10">
+        <v>85</v>
+      </c>
+      <c r="V7" s="10">
+        <v>82</v>
+      </c>
+      <c r="W7" s="10">
+        <v>91</v>
+      </c>
+      <c r="X7" s="10">
+        <v>68</v>
+      </c>
+      <c r="Y7" s="10">
+        <v>81</v>
+      </c>
+      <c r="Z7" s="10">
+        <v>92</v>
+      </c>
+      <c r="AA7" s="10">
+        <v>88</v>
+      </c>
+      <c r="AB7" s="10">
+        <v>70</v>
+      </c>
+      <c r="AC7" s="10">
+        <v>69</v>
+      </c>
+      <c r="AD7" s="10">
+        <v>63</v>
+      </c>
+      <c r="AE7" s="10">
+        <v>10</v>
+      </c>
+      <c r="AF7" s="10">
+        <v>10</v>
+      </c>
+      <c r="AG7" s="10">
+        <v>10</v>
+      </c>
+      <c r="AH7" s="10">
+        <v>10</v>
+      </c>
+      <c r="AI7" s="10">
+        <v>10</v>
+      </c>
+      <c r="AJ7" s="10">
+        <v>4</v>
+      </c>
+      <c r="AK7" s="10">
+        <v>2</v>
+      </c>
+      <c r="AL7" s="13"/>
+      <c r="AM7" s="13"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="13"/>
+      <c r="AP7" s="13"/>
+      <c r="AQ7" s="13"/>
+      <c r="AR7" s="13"/>
+      <c r="AS7" s="13"/>
+      <c r="AT7" s="13"/>
+      <c r="AU7" s="13"/>
+      <c r="AV7" s="13"/>
+      <c r="AW7" s="13"/>
+    </row>
+    <row r="8" spans="1:49" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="10">
+        <v>79</v>
+      </c>
+      <c r="C8" s="10">
+        <v>76</v>
+      </c>
+      <c r="D8" s="10">
+        <v>80</v>
+      </c>
+      <c r="E8" s="10">
+        <v>82</v>
+      </c>
+      <c r="F8" s="10">
+        <v>74</v>
+      </c>
+      <c r="G8" s="10">
+        <v>93</v>
+      </c>
+      <c r="H8" s="10">
+        <v>77</v>
+      </c>
+      <c r="I8" s="10">
+        <v>92</v>
+      </c>
+      <c r="J8" s="10">
+        <v>80</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10">
+        <v>80</v>
+      </c>
+      <c r="M8" s="10">
+        <v>82</v>
+      </c>
+      <c r="N8" s="10">
+        <v>89</v>
+      </c>
+      <c r="O8" s="10">
+        <v>90</v>
+      </c>
+      <c r="P8" s="10">
+        <v>85</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>87</v>
+      </c>
+      <c r="R8" s="10">
+        <v>78</v>
+      </c>
+      <c r="S8" s="10">
+        <v>83</v>
+      </c>
+      <c r="T8" s="10">
+        <v>75</v>
+      </c>
+      <c r="U8" s="10">
+        <v>90</v>
+      </c>
+      <c r="V8" s="10">
+        <v>89</v>
+      </c>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10">
+        <v>82</v>
+      </c>
+      <c r="Y8" s="10">
+        <v>90</v>
+      </c>
+      <c r="Z8" s="10">
+        <v>80</v>
+      </c>
+      <c r="AA8" s="10">
+        <v>73</v>
+      </c>
+      <c r="AB8" s="10">
+        <v>80</v>
+      </c>
+      <c r="AC8" s="10">
+        <v>83</v>
+      </c>
+      <c r="AD8" s="10">
+        <v>75</v>
+      </c>
+      <c r="AE8" s="10">
+        <v>10</v>
+      </c>
+      <c r="AF8" s="10">
+        <v>10</v>
+      </c>
+      <c r="AG8" s="10">
+        <v>10</v>
+      </c>
+      <c r="AH8" s="10">
+        <v>10</v>
+      </c>
+      <c r="AI8" s="10">
+        <v>10</v>
+      </c>
+      <c r="AJ8" s="10">
+        <v>4</v>
+      </c>
+      <c r="AK8" s="10">
+        <v>4</v>
+      </c>
+      <c r="AL8" s="13"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="13"/>
+      <c r="AU8" s="13"/>
+      <c r="AV8" s="13"/>
+      <c r="AW8" s="13"/>
+    </row>
+    <row r="9" spans="1:49" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="10">
+        <v>75</v>
+      </c>
+      <c r="C9" s="10">
+        <v>71</v>
+      </c>
+      <c r="D9" s="10">
+        <v>76</v>
+      </c>
+      <c r="E9" s="10">
+        <v>80</v>
+      </c>
+      <c r="F9" s="10">
+        <v>80</v>
+      </c>
+      <c r="G9" s="10">
+        <v>92</v>
+      </c>
+      <c r="H9" s="10">
+        <v>82</v>
+      </c>
+      <c r="I9" s="10">
+        <v>92</v>
+      </c>
+      <c r="J9" s="10">
+        <v>88</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10">
+        <v>91</v>
+      </c>
+      <c r="M9" s="10">
+        <v>72</v>
+      </c>
+      <c r="N9" s="10">
+        <v>84</v>
+      </c>
+      <c r="O9" s="10">
+        <v>74</v>
+      </c>
+      <c r="P9" s="10">
+        <v>81</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>79</v>
+      </c>
+      <c r="R9" s="10">
+        <v>72</v>
+      </c>
+      <c r="S9" s="10">
+        <v>75</v>
+      </c>
+      <c r="T9" s="10">
+        <v>80</v>
+      </c>
+      <c r="U9" s="10">
+        <v>86</v>
+      </c>
+      <c r="V9" s="10">
+        <v>88</v>
+      </c>
+      <c r="W9" s="10">
+        <v>88</v>
+      </c>
+      <c r="X9" s="10">
+        <v>71</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>88</v>
+      </c>
+      <c r="Z9" s="10">
+        <v>87</v>
+      </c>
+      <c r="AA9" s="10">
+        <v>85</v>
+      </c>
+      <c r="AB9" s="10">
+        <v>70</v>
+      </c>
+      <c r="AC9" s="10">
+        <v>77</v>
+      </c>
+      <c r="AD9" s="10">
+        <v>71</v>
+      </c>
+      <c r="AE9" s="10">
+        <v>10</v>
+      </c>
+      <c r="AF9" s="10">
+        <v>10</v>
+      </c>
+      <c r="AG9" s="10">
+        <v>10</v>
+      </c>
+      <c r="AH9" s="10">
+        <v>10</v>
+      </c>
+      <c r="AI9" s="10">
+        <v>10</v>
+      </c>
+      <c r="AJ9" s="10">
+        <v>4</v>
+      </c>
+      <c r="AK9" s="10">
+        <v>3</v>
+      </c>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="13"/>
+      <c r="AR9" s="13"/>
+      <c r="AS9" s="13"/>
+      <c r="AT9" s="13"/>
+      <c r="AU9" s="13"/>
+      <c r="AV9" s="13"/>
+      <c r="AW9" s="13"/>
+    </row>
+    <row r="10" spans="1:49" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="10">
+        <v>85</v>
+      </c>
+      <c r="C10" s="10">
+        <v>87</v>
+      </c>
+      <c r="D10" s="10">
+        <v>79</v>
+      </c>
+      <c r="E10" s="10">
+        <v>81</v>
+      </c>
+      <c r="F10" s="10">
+        <v>83</v>
+      </c>
+      <c r="G10" s="10">
+        <v>90</v>
+      </c>
+      <c r="H10" s="10">
+        <v>78</v>
+      </c>
+      <c r="I10" s="10">
+        <v>92</v>
+      </c>
+      <c r="J10" s="10">
+        <v>81</v>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10">
+        <v>90</v>
+      </c>
+      <c r="M10" s="10">
+        <v>79</v>
+      </c>
+      <c r="N10" s="10">
+        <v>82</v>
+      </c>
+      <c r="O10" s="10">
+        <v>75</v>
+      </c>
+      <c r="P10" s="10">
+        <v>80</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>83</v>
+      </c>
+      <c r="R10" s="10">
+        <v>65</v>
+      </c>
+      <c r="S10" s="10">
+        <v>64</v>
+      </c>
+      <c r="T10" s="10">
+        <v>85</v>
+      </c>
+      <c r="U10" s="10">
+        <v>82</v>
+      </c>
+      <c r="V10" s="10">
+        <v>85</v>
+      </c>
+      <c r="W10" s="10">
+        <v>86</v>
+      </c>
+      <c r="X10" s="10">
+        <v>90</v>
+      </c>
+      <c r="Y10" s="10">
+        <v>88</v>
+      </c>
+      <c r="Z10" s="10">
+        <v>86</v>
+      </c>
+      <c r="AA10" s="10">
+        <v>89</v>
+      </c>
+      <c r="AB10" s="10">
+        <v>72</v>
+      </c>
+      <c r="AC10" s="10">
+        <v>85</v>
+      </c>
+      <c r="AD10" s="10">
+        <v>66</v>
+      </c>
+      <c r="AE10" s="10">
+        <v>10</v>
+      </c>
+      <c r="AF10" s="10">
+        <v>10</v>
+      </c>
+      <c r="AG10" s="10">
+        <v>10</v>
+      </c>
+      <c r="AH10" s="10">
+        <v>10</v>
+      </c>
+      <c r="AI10" s="10">
+        <v>10</v>
+      </c>
+      <c r="AJ10" s="10">
+        <v>4</v>
+      </c>
+      <c r="AK10" s="10">
+        <v>3</v>
+      </c>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="13"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="13"/>
+      <c r="AP10" s="13"/>
+      <c r="AQ10" s="13"/>
+      <c r="AR10" s="13"/>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="13"/>
+      <c r="AU10" s="13"/>
+      <c r="AV10" s="13"/>
+      <c r="AW10" s="13"/>
+    </row>
+    <row r="11" spans="1:49" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="10">
+        <v>88</v>
+      </c>
+      <c r="C11" s="10">
+        <v>89</v>
+      </c>
+      <c r="D11" s="10">
+        <v>89</v>
+      </c>
+      <c r="E11" s="10">
+        <v>90</v>
+      </c>
+      <c r="F11" s="10">
+        <v>68</v>
+      </c>
+      <c r="G11" s="10">
+        <v>86</v>
+      </c>
+      <c r="H11" s="10">
+        <v>65</v>
+      </c>
+      <c r="I11" s="10">
+        <v>92</v>
+      </c>
+      <c r="J11" s="10">
+        <v>69</v>
+      </c>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10">
+        <v>58</v>
+      </c>
+      <c r="M11" s="10">
+        <v>84</v>
+      </c>
+      <c r="N11" s="10">
+        <v>84</v>
+      </c>
+      <c r="O11" s="10">
+        <v>84</v>
+      </c>
+      <c r="P11" s="10">
+        <v>84</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>91</v>
+      </c>
+      <c r="R11" s="10">
+        <v>80</v>
+      </c>
+      <c r="S11" s="10">
+        <v>80</v>
+      </c>
+      <c r="T11" s="10">
+        <v>74</v>
+      </c>
+      <c r="U11" s="10">
+        <v>85</v>
+      </c>
+      <c r="V11" s="10">
+        <v>88</v>
+      </c>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10">
+        <v>92</v>
+      </c>
+      <c r="Y11" s="10">
+        <v>91</v>
+      </c>
+      <c r="Z11" s="10">
+        <v>57</v>
+      </c>
+      <c r="AA11" s="10">
+        <v>54</v>
+      </c>
+      <c r="AB11" s="10">
+        <v>88</v>
+      </c>
+      <c r="AC11" s="10">
+        <v>94</v>
+      </c>
+      <c r="AD11" s="10">
+        <v>75</v>
+      </c>
+      <c r="AE11" s="10">
+        <v>10</v>
+      </c>
+      <c r="AF11" s="10">
+        <v>10</v>
+      </c>
+      <c r="AG11" s="10">
+        <v>10</v>
+      </c>
+      <c r="AH11" s="10">
+        <v>10</v>
+      </c>
+      <c r="AI11" s="10">
+        <v>10</v>
+      </c>
+      <c r="AJ11" s="10">
+        <v>4</v>
+      </c>
+      <c r="AK11" s="10">
+        <v>4</v>
+      </c>
+      <c r="AL11" s="13"/>
+      <c r="AM11" s="13"/>
+      <c r="AN11" s="13"/>
+      <c r="AO11" s="13"/>
+      <c r="AP11" s="13"/>
+      <c r="AQ11" s="13"/>
+      <c r="AR11" s="13"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="13"/>
+      <c r="AU11" s="13"/>
+      <c r="AV11" s="13"/>
+      <c r="AW11" s="13"/>
+    </row>
+    <row r="12" spans="1:49" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="10">
+        <v>88</v>
+      </c>
+      <c r="C12" s="10">
+        <v>89</v>
+      </c>
+      <c r="D12" s="10">
+        <v>89</v>
+      </c>
+      <c r="E12" s="10">
+        <v>90</v>
+      </c>
+      <c r="F12" s="10">
+        <v>68</v>
+      </c>
+      <c r="G12" s="10">
+        <v>86</v>
+      </c>
+      <c r="H12" s="10">
+        <v>65</v>
+      </c>
+      <c r="I12" s="10">
+        <v>92</v>
+      </c>
+      <c r="J12" s="10">
+        <v>69</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10">
+        <v>58</v>
+      </c>
+      <c r="M12" s="10">
+        <v>84</v>
+      </c>
+      <c r="N12" s="10">
+        <v>84</v>
+      </c>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>91</v>
+      </c>
+      <c r="R12" s="10">
+        <v>80</v>
+      </c>
+      <c r="S12" s="10">
+        <v>80</v>
+      </c>
+      <c r="T12" s="10">
+        <v>74</v>
+      </c>
+      <c r="U12" s="10">
+        <v>85</v>
+      </c>
+      <c r="V12" s="10">
+        <v>88</v>
+      </c>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10">
+        <v>92</v>
+      </c>
+      <c r="Y12" s="10">
+        <v>91</v>
+      </c>
+      <c r="Z12" s="10">
+        <v>57</v>
+      </c>
+      <c r="AA12" s="10">
+        <v>54</v>
+      </c>
+      <c r="AB12" s="10">
+        <v>88</v>
+      </c>
+      <c r="AC12" s="10">
+        <v>94</v>
+      </c>
+      <c r="AD12" s="10">
+        <v>75</v>
+      </c>
+      <c r="AE12" s="10">
+        <v>10</v>
+      </c>
+      <c r="AF12" s="10">
+        <v>10</v>
+      </c>
+      <c r="AG12" s="10">
+        <v>10</v>
+      </c>
+      <c r="AH12" s="10">
+        <v>10</v>
+      </c>
+      <c r="AI12" s="10">
+        <v>10</v>
+      </c>
+      <c r="AJ12" s="10">
+        <v>4</v>
+      </c>
+      <c r="AK12" s="10">
+        <v>4</v>
+      </c>
+      <c r="AL12" s="13"/>
+      <c r="AM12" s="13"/>
+      <c r="AN12" s="13"/>
+      <c r="AO12" s="13"/>
+      <c r="AP12" s="13"/>
+      <c r="AQ12" s="13"/>
+      <c r="AR12" s="13"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="13"/>
+      <c r="AU12" s="13"/>
+      <c r="AV12" s="13"/>
+      <c r="AW12" s="13"/>
+    </row>
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="10">
+        <v>75</v>
+      </c>
+      <c r="C13" s="10">
+        <v>71</v>
+      </c>
+      <c r="D13" s="10">
+        <v>76</v>
+      </c>
+      <c r="E13" s="10">
+        <v>80</v>
+      </c>
+      <c r="F13" s="10">
+        <v>80</v>
+      </c>
+      <c r="G13" s="10">
+        <v>92</v>
+      </c>
+      <c r="H13" s="10">
+        <v>82</v>
+      </c>
+      <c r="I13" s="10">
+        <v>92</v>
+      </c>
+      <c r="J13" s="10">
+        <v>88</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10">
+        <v>91</v>
+      </c>
+      <c r="M13" s="10">
+        <v>72</v>
+      </c>
+      <c r="N13" s="10">
+        <v>84</v>
+      </c>
+      <c r="O13" s="10">
+        <v>74</v>
+      </c>
+      <c r="P13" s="10">
+        <v>81</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>79</v>
+      </c>
+      <c r="R13" s="10">
+        <v>72</v>
+      </c>
+      <c r="S13" s="10">
+        <v>75</v>
+      </c>
+      <c r="T13" s="10">
+        <v>80</v>
+      </c>
+      <c r="U13" s="10">
+        <v>86</v>
+      </c>
+      <c r="V13" s="10">
+        <v>88</v>
+      </c>
+      <c r="W13" s="10">
+        <v>88</v>
+      </c>
+      <c r="X13" s="10">
+        <v>71</v>
+      </c>
+      <c r="Y13" s="10">
+        <v>88</v>
+      </c>
+      <c r="Z13" s="10">
+        <v>87</v>
+      </c>
+      <c r="AA13" s="10">
+        <v>85</v>
+      </c>
+      <c r="AB13" s="10">
+        <v>70</v>
+      </c>
+      <c r="AC13" s="10">
+        <v>77</v>
+      </c>
+      <c r="AD13" s="10">
+        <v>71</v>
+      </c>
+      <c r="AE13" s="10">
+        <v>10</v>
+      </c>
+      <c r="AF13" s="10">
+        <v>10</v>
+      </c>
+      <c r="AG13" s="10">
+        <v>10</v>
+      </c>
+      <c r="AH13" s="10">
+        <v>10</v>
+      </c>
+      <c r="AI13" s="10">
+        <v>10</v>
+      </c>
+      <c r="AJ13" s="10">
+        <v>4</v>
+      </c>
+      <c r="AK13" s="10">
+        <v>3</v>
+      </c>
+      <c r="AL13" s="13"/>
+      <c r="AM13" s="13"/>
+      <c r="AN13" s="13"/>
+      <c r="AO13" s="13"/>
+      <c r="AP13" s="13"/>
+      <c r="AQ13" s="13"/>
+      <c r="AR13" s="13"/>
+      <c r="AS13" s="13"/>
+      <c r="AT13" s="13"/>
+      <c r="AU13" s="13"/>
+      <c r="AV13" s="13"/>
+      <c r="AW13" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>